--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692651.773914978</v>
+        <v>723451.5160534618</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12402915.60941508</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240762</v>
+        <v>6034514.474368502</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9718742.18639051</v>
+        <v>9568806.060069285</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>62.92597814922055</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>151.2443464075608</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>135.6706851859468</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518633</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.35978057129933</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>221.4550027283789</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>33.23420391203683</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>321.5378846129439</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.8002318513527</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>64.6464400710741</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>369.4837565725468</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>154.3282774019373</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>42.69787603752381</v>
       </c>
       <c r="G10" t="n">
-        <v>134.2158014286932</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>56.98500889837925</v>
       </c>
       <c r="F11" t="n">
-        <v>164.6037977632921</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.487334137518177</v>
+        <v>13.89072837997138</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>132.4079811337038</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>29.76460990121632</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>63.72703424640786</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>98.17502158542723</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>231.842090801615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>9.099193441179702</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.816869201471</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2134,19 +2134,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>344.4609737341454</v>
+        <v>237.2841637048834</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>193.0697012992157</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.9226464802962</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>29.7373005268377</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6898441249709</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>342.8171881768166</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>205.6364455689683</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.01006515217569</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>136.0330956397388</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>281.841801725266</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2851,16 +2851,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>162.6159201417017</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>59.91108870906495</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>220.9831900681325</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>52.80938221506483</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>133.6650819731284</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>15.35495632868405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>136.0330956397388</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>1.97720150725441</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>195.5504310656861</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
@@ -3325,13 +3325,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>260.696886152734</v>
+        <v>201.0130390227249</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>44.28190385754274</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>158.1556649146111</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>181.4487096095775</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>215.184612500362</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>33.3830437605888</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491565</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.5103646250809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>202.1727948966017</v>
       </c>
       <c r="E44" t="n">
-        <v>2.379113942662077</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T46" t="n">
-        <v>114.4746605491554</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1688.365042002428</v>
+        <v>97.29080515268032</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>1544.727438003257</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>1544.727438003257</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1544.727438003257</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="W2" t="n">
-        <v>2078.50437397824</v>
+        <v>860.8958953895719</v>
       </c>
       <c r="X2" t="n">
-        <v>2078.50437397824</v>
+        <v>487.430137128492</v>
       </c>
       <c r="Y2" t="n">
-        <v>1688.365042002428</v>
+        <v>97.29080515268032</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>625.4767298498014</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>488.4356337023804</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542602</v>
+        <v>339.5012240411291</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>180.2637690356736</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756897</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>660.7750882322387</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>924.714619727726</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1210.048490161059</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>1621.182402866227</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>1490.841830594768</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>1490.841830594768</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1255.689722363025</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1001.452365634823</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1001.452365634823</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>793.6920668698694</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378.6078255973312</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="C4" t="n">
-        <v>378.6078255973312</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="D4" t="n">
-        <v>378.6078255973312</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="E4" t="n">
-        <v>378.6078255973312</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="F4" t="n">
-        <v>231.7178780994208</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="G4" t="n">
-        <v>63.73141340769939</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>429.2927710969901</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>562.8018603827933</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>789.1739637009373</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1038.240730033478</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>1286.819861776078</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1500.406628124233</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1659.646322760277</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1483.988306288229</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1260.296384340371</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>971.1597573324733</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323091</v>
+        <v>716.4752691265865</v>
       </c>
       <c r="W4" t="n">
-        <v>606.5973764953485</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="X4" t="n">
-        <v>378.6078255973312</v>
+        <v>427.0580990896258</v>
       </c>
       <c r="Y4" t="n">
-        <v>378.6078255973312</v>
+        <v>427.0580990896258</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.669246337129</v>
+        <v>1082.534146117595</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.669246337129</v>
+        <v>713.5716291771834</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.808578312941</v>
+        <v>1859.273318157529</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.669246337129</v>
+        <v>1469.133986181717</v>
       </c>
     </row>
     <row r="6">
@@ -4634,34 +4634,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193021</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507739</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
         <v>2422.685363568936</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167644</v>
+        <v>265.2851191197233</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888575</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.050469232272</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="X7" t="n">
-        <v>1124.050469232272</v>
+        <v>667.7261630934931</v>
       </c>
       <c r="Y7" t="n">
-        <v>1124.050469232272</v>
+        <v>446.933583949963</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.099343395678</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>901.8222562515675</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>901.8222562515675</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4801,55 +4801,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2073.007330641604</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2073.007330641604</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1720.23867537149</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1720.23867537149</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.099343395678</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>483.8248900728888</v>
+        <v>94.37595428267363</v>
       </c>
       <c r="C10" t="n">
-        <v>483.8248900728888</v>
+        <v>94.37595428267363</v>
       </c>
       <c r="D10" t="n">
-        <v>333.7082506605531</v>
+        <v>94.37595428267363</v>
       </c>
       <c r="E10" t="n">
-        <v>333.7082506605531</v>
+        <v>94.37595428267363</v>
       </c>
       <c r="F10" t="n">
-        <v>186.8183031626427</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W10" t="n">
-        <v>1114.255484944676</v>
+        <v>504.0139700109307</v>
       </c>
       <c r="X10" t="n">
-        <v>886.2659340466587</v>
+        <v>276.0244191129133</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.4733549031286</v>
+        <v>276.0244191129133</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1685.375546116518</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C11" t="n">
-        <v>1316.413029176106</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D11" t="n">
-        <v>958.1473305693555</v>
+        <v>581.1420803965862</v>
       </c>
       <c r="E11" t="n">
-        <v>572.3590779711112</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.975386180639</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271517</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271517</v>
+        <v>80.54315519983129</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271517</v>
+        <v>80.54315519983129</v>
       </c>
       <c r="E13" t="n">
-        <v>214.9044216447586</v>
+        <v>80.54315519983129</v>
       </c>
       <c r="F13" t="n">
-        <v>68.01447414684824</v>
+        <v>80.54315519983129</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5232,19 +5232,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271517</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1964.273285499503</v>
+        <v>2120.647175555804</v>
       </c>
       <c r="C14" t="n">
-        <v>1964.273285499503</v>
+        <v>1751.684658615392</v>
       </c>
       <c r="D14" t="n">
-        <v>1606.007586892753</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.219334294508</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>809.2334295049009</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>394.1609793498973</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>96.57737895866455</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539437</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W14" t="n">
-        <v>2741.012457539437</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X14" t="n">
-        <v>2741.012457539437</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y14" t="n">
-        <v>2350.873125563625</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>363.5187033424295</v>
+        <v>912.4415581410489</v>
       </c>
       <c r="C16" t="n">
-        <v>363.5187033424295</v>
+        <v>743.505375213142</v>
       </c>
       <c r="D16" t="n">
-        <v>213.4020639300938</v>
+        <v>593.3887358008062</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>445.4756422184131</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>298.5856947205027</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>130.8828580952217</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1828.127859618364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1606.36124418789</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1317.258377313534</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V16" t="n">
-        <v>1062.573889107647</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W16" t="n">
-        <v>773.1567190706866</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X16" t="n">
-        <v>545.1671681726692</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y16" t="n">
-        <v>545.1671681726692</v>
+        <v>1094.090022971289</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1853.982617026598</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1485.020100086186</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1126.754401479436</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
         <v>892.5704713767946</v>
@@ -5506,61 +5506,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066532</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W17" t="n">
-        <v>2630.721789066532</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X17" t="n">
-        <v>2630.721789066532</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y17" t="n">
-        <v>2240.58245709072</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
         <v>315.6219318279954</v>
@@ -5706,19 +5706,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484845</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1513.842048484845</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>1285.852497586828</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.936468090393</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1278.358723975039</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
         <v>892.5704713767946</v>
@@ -5743,61 +5743,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.39124739121</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.03827352421</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X20" t="n">
-        <v>2055.097896014972</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y20" t="n">
-        <v>1664.958564039161</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5852,7 +5852,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5940,22 +5940,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610488</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>1029.71928130825</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>1029.71928130825</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>1029.71928130825</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.71928130825</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1888.09808975843</v>
+        <v>1624.638712032429</v>
       </c>
       <c r="C23" t="n">
-        <v>1519.135572818019</v>
+        <v>1255.676195092018</v>
       </c>
       <c r="D23" t="n">
-        <v>1160.869874211268</v>
+        <v>897.4104964852672</v>
       </c>
       <c r="E23" t="n">
-        <v>775.0816216130238</v>
+        <v>511.622243887023</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>511.622243887023</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>96.54979373201945</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218339</v>
@@ -5989,10 +5989,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,7 +6001,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
@@ -6022,19 +6022,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339055</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077976</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102164</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.8553933260934</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C25" t="n">
-        <v>231.8553933260934</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D25" t="n">
-        <v>231.8553933260934</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>231.8553933260934</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>231.8553933260934</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218339</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1636.624422581789</v>
+        <v>1624.638712032429</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1624.638712032429</v>
       </c>
       <c r="D26" t="n">
         <v>1278.358723975039</v>
@@ -6259,19 +6259,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3117.892240226373</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2786.829352882803</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W26" t="n">
-        <v>2786.829352882803</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X26" t="n">
-        <v>2413.363594621723</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.224262645911</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="27">
@@ -6317,13 +6317,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>690.6749427105746</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>521.7387597826677</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>371.6221203703319</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>371.6221203703319</v>
       </c>
       <c r="F28" t="n">
         <v>234.2149530574644</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1647.321240915451</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C29" t="n">
-        <v>1278.358723975039</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
         <v>892.5704713767946</v>
@@ -6454,19 +6454,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6475,40 +6475,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>2797.526171216464</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2797.526171216464</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X29" t="n">
-        <v>2424.060412955384</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y29" t="n">
-        <v>2033.921080979572</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>593.9942835760969</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>425.05810064819</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>274.9414612358543</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>127.0283676534611</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0283676534611</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6651,22 +6651,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U31" t="n">
-        <v>1513.842048484845</v>
+        <v>1512.393320412154</v>
       </c>
       <c r="V31" t="n">
-        <v>1513.842048484845</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="W31" t="n">
-        <v>1224.424878447884</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X31" t="n">
-        <v>996.4353275498668</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y31" t="n">
-        <v>775.6427484063366</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1930.094988518961</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C32" t="n">
-        <v>1561.13247157855</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D32" t="n">
-        <v>1202.866772971799</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>817.078520373555</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3272.263011290923</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3066.285263675145</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>3066.285263675145</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>2735.222376331575</v>
       </c>
       <c r="W32" t="n">
-        <v>3080.299918819975</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X32" t="n">
-        <v>2706.834160558895</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y32" t="n">
-        <v>2316.694828583083</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
         <v>618.1564155387305</v>
@@ -6767,46 +6767,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
         <v>2242.828302297192</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>364.5418494269122</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C34" t="n">
-        <v>364.5418494269122</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D34" t="n">
-        <v>214.4252100145765</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218342</v>
@@ -6858,16 +6858,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1821.95403394836</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T34" t="n">
-        <v>1600.187418517886</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U34" t="n">
-        <v>1311.08455164353</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1056.400063437643</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>766.9828934006821</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X34" t="n">
-        <v>766.9828934006821</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y34" t="n">
-        <v>546.190314257152</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1252.833343223196</v>
+        <v>1792.126722677731</v>
       </c>
       <c r="C35" t="n">
-        <v>1252.833343223196</v>
+        <v>1423.164205737319</v>
       </c>
       <c r="D35" t="n">
-        <v>894.5676446164455</v>
+        <v>1064.898507130569</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>679.1102545323245</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>679.1102545323245</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>264.0378043773209</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W35" t="n">
-        <v>2403.038273524209</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X35" t="n">
-        <v>2029.572515263129</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="Y35" t="n">
-        <v>1639.433183287318</v>
+        <v>1792.126722677731</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,7 +7034,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7128,19 +7128,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1250.51186045178</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="V37" t="n">
-        <v>1250.51186045178</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W37" t="n">
-        <v>1250.51186045178</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.525483338121</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C38" t="n">
-        <v>852.5629663977095</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D38" t="n">
-        <v>494.2972677909589</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="E38" t="n">
-        <v>108.5090151927147</v>
+        <v>979.2965659530255</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>568.310661163418</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>153.2382110084145</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3055.56195625282</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2724.499068909249</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W38" t="n">
-        <v>2371.730413639134</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X38" t="n">
-        <v>1998.264655378055</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y38" t="n">
-        <v>1608.125323402243</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D39" t="n">
         <v>618.1564155387305</v>
@@ -7241,46 +7241,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,22 +7353,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W40" t="n">
         <v>696.9427113039706</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.62132134232</v>
+        <v>1853.982617026599</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U41" t="n">
-        <v>3181.594906913448</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V41" t="n">
-        <v>3181.594906913448</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W41" t="n">
-        <v>2828.826251643334</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.360493382254</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="Y41" t="n">
-        <v>2065.221161406442</v>
+        <v>2240.582457090721</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,73 +7545,73 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621292</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251686</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271513</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y43" t="n">
         <v>248.1605812624231</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1295.236214140705</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C44" t="n">
-        <v>1295.236214140705</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D44" t="n">
-        <v>936.9705155339541</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X44" t="n">
-        <v>2071.975386180638</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y44" t="n">
-        <v>1681.836054204826</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,13 +7827,13 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T46" t="n">
         <v>1530.147236421175</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>147.3598584166011</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143846</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>114.3555089013358</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>302.346913621787</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>197.9966223098523</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>37.03781380236896</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22640,13 +22640,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22716,16 +22716,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8917285838295</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0.7120449039373682</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>321.4488377086461</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,16 +22840,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>48.19321606552518</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.03174833058455</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>102.6003810275537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,19 +23023,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>12.446613499715</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>96.71697272652472</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23184,19 +23184,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>102.7231719854074</v>
       </c>
       <c r="G10" t="n">
-        <v>32.09079861611099</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>324.9453611738825</v>
       </c>
       <c r="F11" t="n">
-        <v>242.2722479784193</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>164.53847412151</v>
+        <v>152.1350798790568</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.2750604869792</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.81231987170963</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>81.02798066791291</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,10 +23703,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>91.59400374601466</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>150.0882792706468</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>377.1387452148739</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.335964134056894</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.7677841506238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>25.27012694432364</v>
+        <v>132.4469369735857</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>59.06794202461234</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.81119518318434</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>264.8704638604827</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -24262,10 +24262,10 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>2.335964134057321</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>11.8658534438664</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>45.35872638993365</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.8219150297616</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.387952383192442</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>100.8920399382146</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>165.1363383284333</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106.1147195499633</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>65.22864813748038</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>56.37837957311102</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>215.5758867442846</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>174.4140690027579</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>82.55155771235599</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>379.9531685650074</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>99.05733332163433</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>25.51495205287893</v>
+        <v>85.19879918288797</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>250.3258605297777</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>92.83950704429091</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>150.0882792706455</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>217.6121281983132</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>105.0742887270127</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>152.5102467240813</v>
       </c>
       <c r="E44" t="n">
-        <v>379.5512561295997</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T46" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>780582.8535323237</v>
+        <v>630646.7272110992</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>780582.8535323237</v>
+        <v>780582.8535323238</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860422.0189724622</v>
+        <v>860422.018972462</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724618</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860422.0189724618</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724618</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.018972462</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860422.0189724618</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>247001.9304687608</v>
+      </c>
+      <c r="C2" t="n">
         <v>305971.6304943086</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
-      <c r="D2" t="n">
-        <v>305971.6304943085</v>
-      </c>
       <c r="E2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="F2" t="n">
+        <v>340997.0989709208</v>
+      </c>
+      <c r="G2" t="n">
         <v>340997.0989709204</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709207</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="K2" t="n">
         <v>340997.0989709207</v>
@@ -26346,16 +26346,16 @@
         <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="O2" t="n">
+        <v>340997.0989709208</v>
+      </c>
+      <c r="P2" t="n">
         <v>340997.0989709204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="P2" t="n">
-        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>863984.3294200042</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>238369.8891383883</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171907</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>110313.0712406509</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>56355.79215856572</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.620387699105777e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16175.59256035157</v>
+        <v>13493.20237651353</v>
       </c>
       <c r="C4" t="n">
-        <v>16175.59256035157</v>
+        <v>16175.59256035159</v>
       </c>
       <c r="D4" t="n">
-        <v>16175.59256035157</v>
+        <v>16175.59256035159</v>
       </c>
       <c r="E4" t="n">
         <v>8550.515172066862</v>
@@ -26435,7 +26435,7 @@
         <v>8550.515172066862</v>
       </c>
       <c r="H4" t="n">
-        <v>8550.515172066895</v>
+        <v>8550.515172066873</v>
       </c>
       <c r="I4" t="n">
         <v>8550.515172066862</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>75611.38525919239</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26484,10 +26484,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139327</v>
@@ -26496,22 +26496,22 @@
         <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-923120.9808036988</v>
+        <v>-706904.5813592662</v>
       </c>
       <c r="C6" t="n">
-        <v>191630.8027722205</v>
+        <v>-42034.36991646516</v>
       </c>
       <c r="D6" t="n">
-        <v>191630.8027722206</v>
+        <v>196335.5192219232</v>
       </c>
       <c r="E6" t="n">
-        <v>72591.07412220871</v>
+        <v>75719.64449046357</v>
       </c>
       <c r="F6" t="n">
-        <v>254664.0539393992</v>
+        <v>257792.6243076545</v>
       </c>
       <c r="G6" t="n">
-        <v>254664.0539393993</v>
+        <v>257792.6243076542</v>
       </c>
       <c r="H6" t="n">
-        <v>254664.0539393996</v>
+        <v>257792.6243076545</v>
       </c>
       <c r="I6" t="n">
-        <v>254664.0539393993</v>
+        <v>257792.6243076542</v>
       </c>
       <c r="J6" t="n">
-        <v>87058.87612941676</v>
+        <v>147479.5530670035</v>
       </c>
       <c r="K6" t="n">
-        <v>254664.0539393995</v>
+        <v>201436.8321490887</v>
       </c>
       <c r="L6" t="n">
-        <v>254664.0539393993</v>
+        <v>257792.6243076543</v>
       </c>
       <c r="M6" t="n">
-        <v>207111.7881459846</v>
+        <v>210240.3585142394</v>
       </c>
       <c r="N6" t="n">
-        <v>254664.053939399</v>
+        <v>257792.6243076543</v>
       </c>
       <c r="O6" t="n">
-        <v>254664.0539393996</v>
+        <v>257792.6243076541</v>
       </c>
       <c r="P6" t="n">
-        <v>254664.0539393995</v>
+        <v>257792.6243076546</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>749.98095649761</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
@@ -26816,22 +26816,22 @@
         <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.98095649761</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>184.0839356199291</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>218.969693818057</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>218.969693818057</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O27" t="n">
         <v>557.7086478970249</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313198</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>359.0678111972381</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>65.93752551686947</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578695</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>364.035038024868</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525805</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
